--- a/result_graphs/npb-benchmark-total-t8-mac.xlsx
+++ b/result_graphs/npb-benchmark-total-t8-mac.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itomaldonado/git/multiprocessor-benchmarking-exploration/Graphed Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itomaldonado/git/multiprocessor-benchmarking-exploration/result_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="npb-benchmark-total-output" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId12"/>
+    <pivotCache cacheId="28" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -899,11 +899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046927984"/>
-        <c:axId val="-1190539568"/>
+        <c:axId val="-2063983504"/>
+        <c:axId val="-2063979872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046927984"/>
+        <c:axId val="-2063983504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1190539568"/>
+        <c:crossAx val="-2063979872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1190539568"/>
+        <c:axId val="-2063979872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046927984"/>
+        <c:crossAx val="-2063983504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,11 +1735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125710400"/>
-        <c:axId val="-2046985120"/>
+        <c:axId val="-2063917936"/>
+        <c:axId val="-2063914304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125710400"/>
+        <c:axId val="-2063917936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046985120"/>
+        <c:crossAx val="-2063914304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046985120"/>
+        <c:axId val="-2063914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125710400"/>
+        <c:crossAx val="-2063917936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1188785104"/>
-        <c:axId val="-2126614848"/>
+        <c:axId val="-2063848352"/>
+        <c:axId val="-2063844720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1188785104"/>
+        <c:axId val="-2063848352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126614848"/>
+        <c:crossAx val="-2063844720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126614848"/>
+        <c:axId val="-2063844720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188785104"/>
+        <c:crossAx val="-2063848352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,14 +3101,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$L$43:$M$43</c:f>
+              <c:f>'Chart-Data'!$L$42:$M$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3171,7 +3171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$N$43:$U$43</c:f>
+              <c:f>'Chart-Data'!$N$42:$U$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3179,25 +3179,25 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>1.56452154523963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1.577478618298538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.355555555555556</c:v>
+                  <c:v>1.567173918893463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.262295081967213</c:v>
+                  <c:v>1.546942651472893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.258064516129032</c:v>
+                  <c:v>1.537204207414446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>1.550216277367405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.242424242424242</c:v>
+                  <c:v>1.541241853848953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,14 +3209,14 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$L$44:$M$44</c:f>
+              <c:f>'Chart-Data'!$L$43:$M$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3279,7 +3279,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$N$44:$U$44</c:f>
+              <c:f>'Chart-Data'!$N$43:$U$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3287,25 +3287,25 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.615384615384616</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.615384615384616</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.544731610337972</c:v>
+                  <c:v>0.355555555555556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.389982110912344</c:v>
+                  <c:v>0.262295081967213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.332761578044597</c:v>
+                  <c:v>0.258064516129032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.482824427480916</c:v>
+                  <c:v>0.266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.370370370370371</c:v>
+                  <c:v>0.242424242424242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,14 +3317,14 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-Data'!$L$42:$M$42</c:f>
+              <c:f>'Chart-Data'!$L$44:$M$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>MG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C</c:v>
+                  <c:v>W</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3387,7 +3387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-Data'!$N$42:$U$42</c:f>
+              <c:f>'Chart-Data'!$N$44:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3395,25 +3395,25 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56452154523963</c:v>
+                  <c:v>1.615384615384616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.577478618298538</c:v>
+                  <c:v>1.615384615384616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.567173918893463</c:v>
+                  <c:v>1.544731610337972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.546942651472893</c:v>
+                  <c:v>1.389982110912344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.537204207414446</c:v>
+                  <c:v>1.332761578044597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.550216277367405</c:v>
+                  <c:v>1.482824427480916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.541241853848953</c:v>
+                  <c:v>1.370370370370371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,11 +3430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046214160"/>
-        <c:axId val="-1188815136"/>
+        <c:axId val="-2063821664"/>
+        <c:axId val="-2063818016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046214160"/>
+        <c:axId val="-2063821664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3505,7 +3505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188815136"/>
+        <c:crossAx val="-2063818016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3513,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188815136"/>
+        <c:axId val="-2063818016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046214160"/>
+        <c:crossAx val="-2063821664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,11 +4266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071793968"/>
-        <c:axId val="-2040059776"/>
+        <c:axId val="-2080457728"/>
+        <c:axId val="-2080454096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071793968"/>
+        <c:axId val="-2080457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,7 +4341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040059776"/>
+        <c:crossAx val="-2080454096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4349,7 +4349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040059776"/>
+        <c:axId val="-2080454096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071793968"/>
+        <c:crossAx val="-2080457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4524,7 +4524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5120,11 +5119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1167950912"/>
-        <c:axId val="-1167142272"/>
+        <c:axId val="-2063194448"/>
+        <c:axId val="-2063190816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1167950912"/>
+        <c:axId val="-2063194448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,7 +5194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1167142272"/>
+        <c:crossAx val="-2063190816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5203,7 +5202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1167142272"/>
+        <c:axId val="-2063190816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5254,7 +5253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1167950912"/>
+        <c:crossAx val="-2063194448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5268,7 +5267,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5370,7 +5368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5956,11 +5953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071607360"/>
-        <c:axId val="-1188399328"/>
+        <c:axId val="-2066145552"/>
+        <c:axId val="-2066141920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071607360"/>
+        <c:axId val="-2066145552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188399328"/>
+        <c:crossAx val="-2066141920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6039,7 +6036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188399328"/>
+        <c:axId val="-2066141920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,7 +6087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071607360"/>
+        <c:crossAx val="-2066145552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6104,7 +6101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6206,7 +6202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6792,11 +6787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046349344"/>
-        <c:axId val="1375810352"/>
+        <c:axId val="-2066078288"/>
+        <c:axId val="-2066074656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046349344"/>
+        <c:axId val="-2066078288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6867,7 +6862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375810352"/>
+        <c:crossAx val="-2066074656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6875,7 +6870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1375810352"/>
+        <c:axId val="-2066074656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046349344"/>
+        <c:crossAx val="-2066078288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6940,7 +6935,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11438,7 +11432,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11465,7 +11459,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11492,7 +11486,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11519,7 +11513,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11546,7 +11540,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22420,7 +22414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -22942,7 +22936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1531"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -48984,9 +48978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50403,8 +50395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/result_graphs/npb-benchmark-total-t8-mac.xlsx
+++ b/result_graphs/npb-benchmark-total-t8-mac.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="npb-benchmark-total-output" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="21">
   <si>
     <t>program</t>
   </si>
@@ -104,30 +104,6 @@
   </si>
   <si>
     <t>SpeedUp</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
   </si>
 </sst>
 </file>
@@ -294,7 +270,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -308,7 +284,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IS-Program Average Per Class</a:t>
+              <a:t>IS-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -327,7 +303,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -346,8 +322,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -367,60 +344,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -455,7 +419,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -475,60 +438,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -563,7 +513,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -583,60 +532,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -671,7 +607,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -691,60 +626,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -779,7 +701,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -799,60 +720,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -887,7 +795,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -897,13 +804,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2063983504"/>
-        <c:axId val="-2063979872"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2055327696"/>
+        <c:axId val="-2042854224"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2063983504"/>
+        <c:axId val="-2055327696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,6 +843,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -959,7 +921,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -974,7 +936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063979872"/>
+        <c:crossAx val="-2042854224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,9 +944,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063979872"/>
+        <c:axId val="-2042854224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1002,6 +965,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1018,7 +1037,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1033,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063983504"/>
+        <c:crossAx val="-2055327696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1061,7 +1080,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1101,7 +1120,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1130,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1144,7 +1163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>EP-Program Average Per Class</a:t>
+              <a:t>EP-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1163,7 +1182,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1182,8 +1201,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1203,60 +1223,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1291,7 +1298,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1311,60 +1317,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1399,7 +1392,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1419,60 +1411,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1507,7 +1486,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1527,60 +1505,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1615,7 +1582,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1635,60 +1601,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1723,7 +1678,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1733,13 +1687,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2063917936"/>
-        <c:axId val="-2063914304"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2142862768"/>
+        <c:axId val="-2012430016"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2063917936"/>
+        <c:axId val="-2142862768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,6 +1726,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1795,7 +1804,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1810,7 +1819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063914304"/>
+        <c:crossAx val="-2012430016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,9 +1827,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063914304"/>
+        <c:axId val="-2012430016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1838,6 +1848,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1854,7 +1920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1869,7 +1935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063917936"/>
+        <c:crossAx val="-2142862768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,7 +1956,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1920,7 +1986,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1960,7 +2026,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1989,7 +2055,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2003,7 +2069,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CG-Program Average Per Class</a:t>
+              <a:t>CG-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2022,7 +2088,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2041,8 +2107,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2062,60 +2129,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2150,7 +2204,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2170,60 +2223,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2258,7 +2298,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2278,60 +2317,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2366,7 +2392,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2386,60 +2411,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2474,7 +2486,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2494,60 +2505,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2582,7 +2580,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2592,13 +2589,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2063848352"/>
-        <c:axId val="-2063844720"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2081496432"/>
+        <c:axId val="-2044711088"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2063848352"/>
+        <c:axId val="-2081496432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,6 +2628,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2654,7 +2706,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2669,7 +2721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063844720"/>
+        <c:crossAx val="-2044711088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,9 +2729,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063844720"/>
+        <c:axId val="-2044711088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2697,6 +2750,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2713,7 +2822,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2728,7 +2837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063848352"/>
+        <c:crossAx val="-2081496432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,7 +2865,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2796,7 +2905,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2825,7 +2934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2839,7 +2948,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MG-Program Average Per Class</a:t>
+              <a:t>MG-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2858,7 +2967,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2877,8 +2986,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2898,60 +3008,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2986,7 +3083,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3006,60 +3102,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3094,7 +3177,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3114,60 +3196,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3202,7 +3271,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3222,60 +3290,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3310,7 +3365,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3330,60 +3384,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3418,7 +3459,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3428,13 +3468,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2063821664"/>
-        <c:axId val="-2063818016"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2060367616"/>
+        <c:axId val="-2044083296"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2063821664"/>
+        <c:axId val="-2060367616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,6 +3507,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3490,7 +3585,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3505,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063818016"/>
+        <c:crossAx val="-2044083296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3513,9 +3608,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063818016"/>
+        <c:axId val="-2044083296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3533,6 +3629,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3549,7 +3701,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3564,7 +3716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063821664"/>
+        <c:crossAx val="-2060367616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3592,7 +3744,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3632,7 +3784,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3661,7 +3813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3675,7 +3827,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FT-Program Average Per Class</a:t>
+              <a:t>FT-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3694,7 +3846,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3713,8 +3865,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3734,60 +3887,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3822,7 +3962,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3842,60 +3981,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3930,7 +4056,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3950,60 +4075,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4038,7 +4150,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4058,60 +4169,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4146,7 +4244,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4166,60 +4263,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4254,7 +4338,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4264,13 +4347,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2080457728"/>
-        <c:axId val="-2080454096"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2082692688"/>
+        <c:axId val="-2063527648"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2080457728"/>
+        <c:axId val="-2082692688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,6 +4386,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4326,7 +4464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4341,7 +4479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080454096"/>
+        <c:crossAx val="-2063527648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4349,9 +4487,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080454096"/>
+        <c:axId val="-2063527648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4369,6 +4508,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4385,7 +4580,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4400,7 +4595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080457728"/>
+        <c:crossAx val="-2082692688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4428,7 +4623,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4468,7 +4663,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4497,7 +4692,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4511,19 +4706,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BT-Program</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> A</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>verage Per Class</a:t>
+              <a:t>BT-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4537,7 +4725,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4566,8 +4754,9 @@
           <c:h val="0.748867436091036"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4587,60 +4776,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4675,7 +4851,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4695,60 +4870,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4783,7 +4945,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4803,60 +4964,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4891,7 +5039,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4911,60 +5058,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4999,7 +5133,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5019,60 +5152,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5107,7 +5227,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5117,13 +5236,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2063194448"/>
-        <c:axId val="-2063190816"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2044596448"/>
+        <c:axId val="-2055730992"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2063194448"/>
+        <c:axId val="-2044596448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5157,6 +5275,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5179,7 +5353,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5194,7 +5368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063190816"/>
+        <c:crossAx val="-2055730992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5202,9 +5376,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063190816"/>
+        <c:axId val="-2055730992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5222,6 +5397,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5238,7 +5469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5253,7 +5484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063194448"/>
+        <c:crossAx val="-2044596448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5267,6 +5498,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5280,7 +5512,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5320,7 +5552,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5349,7 +5581,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5363,11 +5595,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SP-Program Average Per Class</a:t>
+              <a:t>SP-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5381,7 +5614,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5400,8 +5633,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5421,60 +5655,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5509,7 +5730,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5529,60 +5749,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5617,7 +5824,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5637,60 +5843,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5725,7 +5918,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5745,60 +5937,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5833,7 +6012,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5853,60 +6031,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5941,7 +6106,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5951,13 +6115,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2066145552"/>
-        <c:axId val="-2066141920"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2081673488"/>
+        <c:axId val="-2044168368"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2066145552"/>
+        <c:axId val="-2081673488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,6 +6154,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6013,7 +6232,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6028,7 +6247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066141920"/>
+        <c:crossAx val="-2044168368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6036,9 +6255,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066141920"/>
+        <c:axId val="-2044168368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6056,6 +6276,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6072,7 +6348,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6087,7 +6363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066145552"/>
+        <c:crossAx val="-2081673488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6101,6 +6377,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6114,7 +6391,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6154,7 +6431,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6183,7 +6460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6197,11 +6474,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LU-Program Average Per Class</a:t>
+              <a:t>LU-Program Average Speedup Per Class</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6215,7 +6493,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6234,8 +6512,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6255,60 +6534,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6343,7 +6609,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6363,60 +6628,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6451,7 +6703,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6471,60 +6722,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6559,7 +6797,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6579,60 +6816,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6667,7 +6891,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6687,60 +6910,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Chart-Data'!$N$2:$U$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>S1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>S3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>S5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>S6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>S8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6775,7 +6985,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6785,13 +6994,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2066078288"/>
-        <c:axId val="-2066074656"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2060419616"/>
+        <c:axId val="-2060443440"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2066078288"/>
+        <c:axId val="-2060419616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,6 +7033,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads/Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6847,7 +7111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6862,7 +7126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066074656"/>
+        <c:crossAx val="-2060443440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6870,9 +7134,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066074656"/>
+        <c:axId val="-2060443440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6890,6 +7155,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6906,7 +7227,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6921,7 +7242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066078288"/>
+        <c:crossAx val="-2060419616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6935,6 +7256,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6948,7 +7270,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6988,7 +7310,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -11421,7 +11743,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11567,7 +11889,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11594,7 +11916,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11621,7 +11943,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675077" cy="6291385"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -22414,7 +22736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NPB-Run-Time" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -22936,7 +23258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -50395,8 +50717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50464,29 +50786,29 @@
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>28</v>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>4</v>
+      </c>
+      <c r="R2" s="11">
+        <v>5</v>
+      </c>
+      <c r="S2" s="11">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11">
+        <v>7</v>
+      </c>
+      <c r="U2" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
